--- a/ege-calc.xlsx
+++ b/ege-calc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6F5DAF-4574-4D51-B1B8-35447E02D63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B61D8F5-B7AA-4222-B183-CD5E486F45F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -796,8 +796,8 @@
   </sheetPr>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
